--- a/CasinoHoldemSimulator/Assets/Casino_Holdem_Solved.xlsx
+++ b/CasinoHoldemSimulator/Assets/Casino_Holdem_Solved.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U56034\Desktop_Local\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U56034\OWN_WS\BerldPokerEngine\CasinoHoldemSimulator\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B61527F-51FB-40A3-AC54-6432AD3506F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D371D1D-1032-4AB2-9204-6C0DFC870D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E4EA057-EB22-4738-AA3D-149E2861C717}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E4EA057-EB22-4738-AA3D-149E2861C717}"/>
   </bookViews>
   <sheets>
     <sheet name="Casino Hold'em Stats" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -148,16 +148,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -472,557 +492,559 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E5B3CF-5E05-4236-812F-0BD8F66D6901}">
-  <dimension ref="B1:H36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="6" width="17" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="5" width="17" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <f t="shared" ref="C2:D5" si="0">C22</f>
+      <c r="B2" s="5">
+        <f t="shared" ref="B2:C5" si="0">B22</f>
         <v>11948046235720</v>
       </c>
-      <c r="D2" s="1">
-        <f>D22</f>
+      <c r="C2" s="5">
+        <f>C22</f>
         <v>11948046235720</v>
       </c>
+      <c r="D2" s="4">
+        <f>C2/$G$2</f>
+        <v>0.42957243992859162</v>
+      </c>
       <c r="E2" s="4">
-        <f>D2/$H$3</f>
+        <f>B2/$G$2</f>
         <v>0.42957243992859162</v>
       </c>
-      <c r="F2" s="4">
-        <f t="shared" ref="F2:F10" si="1">C2/$H$3</f>
-        <v>0.42957243992859162</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="G2" s="5">
+        <f>B19</f>
+        <v>27813810024000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="B3" s="5">
         <f t="shared" si="0"/>
         <v>674014956012</v>
       </c>
-      <c r="D3" s="1">
+      <c r="C3" s="5">
         <f t="shared" si="0"/>
         <v>1348029912024</v>
       </c>
+      <c r="D3" s="4">
+        <f>C3/$G$2</f>
+        <v>4.8466208364147556E-2</v>
+      </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E11" si="2">D3/$H$3</f>
-        <v>4.8466208364147556E-2</v>
-      </c>
-      <c r="F3" s="4">
-        <f t="shared" si="1"/>
+        <f>B3/$G$2</f>
         <v>2.4233104182073778E-2</v>
       </c>
-      <c r="H3" s="1">
-        <f>C19</f>
-        <v>27813810024000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="B4" s="5">
         <f t="shared" si="0"/>
         <v>614106714492</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C4" s="5">
         <f t="shared" si="0"/>
         <v>1842320143476</v>
       </c>
+      <c r="D4" s="4">
+        <f>C4/$G$2</f>
+        <v>6.623760433706484E-2</v>
+      </c>
       <c r="E4" s="4">
-        <f t="shared" si="2"/>
-        <v>6.623760433706484E-2</v>
-      </c>
-      <c r="F4" s="4">
-        <f t="shared" si="1"/>
+        <f>B4/$G$2</f>
         <v>2.2079201445688281E-2</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="B5" s="5">
         <f t="shared" si="0"/>
         <v>42329395872</v>
       </c>
-      <c r="D5" s="1">
+      <c r="C5" s="5">
         <f t="shared" si="0"/>
         <v>423293958720</v>
       </c>
+      <c r="D5" s="4">
+        <f>C5/$G$2</f>
+        <v>1.5218841228682722E-2</v>
+      </c>
       <c r="E5" s="4">
+        <f>B5/$G$2</f>
+        <v>1.5218841228682722E-3</v>
+      </c>
+      <c r="G5" s="4">
+        <f>C11/G2</f>
+        <v>-2.1576458362308686E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <f>B26</f>
+        <v>7090795112</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" ref="C6:C7" si="1">C26</f>
+        <v>141815902240</v>
+      </c>
+      <c r="D6" s="4">
+        <f>C6/$G$2</f>
+        <v>5.0987585705672758E-3</v>
+      </c>
+      <c r="E6" s="4">
+        <f>B6/$G$2</f>
+        <v>2.5493792852836379E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <f>B27</f>
+        <v>856152000</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="1"/>
+        <v>85615200000</v>
+      </c>
+      <c r="D7" s="4">
+        <f>C7/$G$2</f>
+        <v>3.0781543386585405E-3</v>
+      </c>
+      <c r="E7" s="4">
+        <f>B7/$G$2</f>
+        <v>3.0781543386585404E-5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <f>B16</f>
+        <v>7569463751688</v>
+      </c>
+      <c r="C8" s="5">
+        <f>B16*2</f>
+        <v>15138927503376</v>
+      </c>
+      <c r="D8" s="4">
+        <f>C8/$G$2</f>
+        <v>0.54429535149312203</v>
+      </c>
+      <c r="E8" s="4">
+        <f>B8/$G$2</f>
+        <v>0.27214767574656101</v>
+      </c>
+      <c r="G8" s="4">
+        <f>B28/G2</f>
+        <v>0.4776923491511369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <f>B17</f>
+        <v>8839701755612</v>
+      </c>
+      <c r="C9" s="5">
+        <f>B17 * -3</f>
+        <v>-26519105266836</v>
+      </c>
+      <c r="D9" s="4">
+        <f>C9/$G$2</f>
+        <v>-0.9534510102698327</v>
+      </c>
+      <c r="E9" s="4">
+        <f>B9/$G$2</f>
+        <v>0.31781700342327757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14">
+        <f>B14</f>
+        <v>5009067102600</v>
+      </c>
+      <c r="C10" s="14">
+        <f>B14 * -1</f>
+        <v>-5009067102600</v>
+      </c>
+      <c r="D10" s="15">
+        <f>C10/$G$2</f>
+        <v>-0.18009280635331054</v>
+      </c>
+      <c r="E10" s="15">
+        <f>B10/$G$2</f>
+        <v>0.18009280635331054</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8">
+        <f>SUM(C2:C10)</f>
+        <v>-600123513880</v>
+      </c>
+      <c r="D11" s="9">
+        <f>C11/$G$2</f>
+        <v>-2.1576458362308686E-2</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5">
+        <v>5009067102600</v>
+      </c>
+      <c r="C14" s="4">
+        <f>B14/$G$2</f>
+        <v>0.18009280635331054</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="5">
+        <v>5716980497520</v>
+      </c>
+      <c r="C15" s="4">
+        <f>B15/$G$2</f>
+        <v>0.20554467340457591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
+        <v>7569463751688</v>
+      </c>
+      <c r="C16" s="4">
+        <f>B16/$G$2</f>
+        <v>0.27214767574656101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5">
+        <v>8839701755612</v>
+      </c>
+      <c r="C17" s="4">
+        <f>B17/$G$2</f>
+        <v>0.31781700342327757</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="14">
+        <v>678596916580</v>
+      </c>
+      <c r="C18" s="15">
+        <f>B18/$G$2</f>
+        <v>2.4397841072274953E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="11">
+        <f>SUM(B14:B18)</f>
+        <v>27813810024000</v>
+      </c>
+      <c r="C19" s="12">
+        <f>SUM(C14:C18)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5">
+        <v>11948046235720</v>
+      </c>
+      <c r="C22" s="5">
+        <f>B22*B31</f>
+        <v>11948046235720</v>
+      </c>
+      <c r="D22" s="4">
+        <f>C22/$C$28</f>
+        <v>0.75672648079751037</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" ref="E22:E27" si="2">B22/$B$28</f>
+        <v>0.89926589925910527</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5">
+        <v>674014956012</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" ref="C23:C27" si="3">B23*B32</f>
+        <v>1348029912024</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" ref="D23:D27" si="4">C23/$C$28</f>
+        <v>8.5377132897764316E-2</v>
+      </c>
+      <c r="E23" s="4">
         <f t="shared" si="2"/>
-        <v>1.5218841228682722E-2</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="1"/>
-        <v>1.5218841228682722E-3</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+        <v>5.072952126015038E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5">
+        <v>614106714492</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="3"/>
+        <v>1842320143476</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="4"/>
+        <v>0.11668287945748364</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="2"/>
+        <v>4.6220546518953458E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5">
+        <v>42329395872</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="3"/>
+        <v>423293958720</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="4"/>
+        <v>2.6809215616140407E-2</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="2"/>
+        <v>3.1859085153293169E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
-        <f>C26</f>
+      <c r="B26" s="5">
         <v>7090795112</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" ref="D6:D7" si="3">D26</f>
+      <c r="C26" s="5">
+        <f t="shared" si="3"/>
         <v>141815902240</v>
       </c>
-      <c r="E6" s="4">
+      <c r="D26" s="4">
+        <f t="shared" si="4"/>
+        <v>8.9818742333258161E-3</v>
+      </c>
+      <c r="E26" s="4">
         <f t="shared" si="2"/>
-        <v>5.0987585705672758E-3</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" si="1"/>
-        <v>2.5493792852836379E-4</v>
-      </c>
-      <c r="H6" s="4">
-        <f>D11/H3</f>
-        <v>-2.1576458362308686E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+        <v>5.3368643852343557E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
-        <f>C27</f>
+      <c r="B27" s="14">
         <v>856152000</v>
       </c>
-      <c r="D7" s="1">
+      <c r="C27" s="14">
         <f t="shared" si="3"/>
         <v>85615200000</v>
       </c>
-      <c r="E7" s="4">
+      <c r="D27" s="15">
+        <f t="shared" si="4"/>
+        <v>5.4224169977754415E-3</v>
+      </c>
+      <c r="E27" s="15">
         <f t="shared" si="2"/>
-        <v>3.0781543386585405E-3</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="1"/>
-        <v>3.0781543386585404E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <f>C16</f>
-        <v>7569463751688</v>
-      </c>
-      <c r="D8" s="1">
-        <f>C16*2</f>
-        <v>15138927503376</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="2"/>
-        <v>0.54429535149312203</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="1"/>
-        <v>0.27214767574656101</v>
-      </c>
-      <c r="H8" s="2" t="s">
+        <v>6.4438007938130996E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="11">
+        <f>SUM(B22:B27)</f>
+        <v>13286444249208</v>
+      </c>
+      <c r="C28" s="11">
+        <f>SUM(C22:C27)</f>
+        <v>15789121352180</v>
+      </c>
+      <c r="D28" s="12">
+        <v>1</v>
+      </c>
+      <c r="E28" s="12">
+        <f>SUM(E22:E27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <f>C17</f>
-        <v>8839701755612</v>
-      </c>
-      <c r="D9" s="1">
-        <f>C17 * -3</f>
-        <v>-26519105266836</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="2"/>
-        <v>-0.9534510102698327</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="1"/>
-        <v>0.31781700342327757</v>
-      </c>
-      <c r="H9" s="4">
-        <f>C28/H3</f>
-        <v>0.4776923491511369</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <f>C14</f>
-        <v>5009067102600</v>
-      </c>
-      <c r="D10" s="1">
-        <f>C14 * -1</f>
-        <v>-5009067102600</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="2"/>
-        <v>-0.18009280635331054</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.18009280635331054</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1">
-        <f>SUM(D2:D10)</f>
-        <v>-600123513880</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="2"/>
-        <v>-2.1576458362308686E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5009067102600</v>
-      </c>
-      <c r="D14" s="4">
-        <f>C14/$H$3</f>
-        <v>0.18009280635331054</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5716980497520</v>
-      </c>
-      <c r="D15" s="4">
-        <f>C15/$H$3</f>
-        <v>0.20554467340457591</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1">
-        <v>7569463751688</v>
-      </c>
-      <c r="D16" s="4">
-        <f>C16/$H$3</f>
-        <v>0.27214767574656101</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1">
-        <v>8839701755612</v>
-      </c>
-      <c r="D17" s="4">
-        <f>C17/$H$3</f>
-        <v>0.31781700342327757</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1">
-        <v>678596916580</v>
-      </c>
-      <c r="D18" s="4">
-        <f>C18/$H$3</f>
-        <v>2.4397841072274953E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="1">
-        <f>SUM(C14:C18)</f>
-        <v>27813810024000</v>
-      </c>
-      <c r="D19" s="4">
-        <f>SUM(D14:D18)</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
+      <c r="B30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="5">
         <v>20</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>11948046235720</v>
-      </c>
-      <c r="D22" s="1">
-        <f>C22*C31</f>
-        <v>11948046235720</v>
-      </c>
-      <c r="E22" s="4">
-        <f>D22/$D$28</f>
-        <v>0.75672648079751037</v>
-      </c>
-      <c r="F22" s="4">
-        <f t="shared" ref="F22:F27" si="4">C22/$C$28</f>
-        <v>0.89926589925910527</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>674014956012</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" ref="D23:D27" si="5">C23*C32</f>
-        <v>1348029912024</v>
-      </c>
-      <c r="E23" s="4">
-        <f t="shared" ref="E23:E27" si="6">D23/$D$28</f>
-        <v>8.5377132897764316E-2</v>
-      </c>
-      <c r="F23" s="4">
-        <f t="shared" si="4"/>
-        <v>5.072952126015038E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1">
-        <v>614106714492</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="5"/>
-        <v>1842320143476</v>
-      </c>
-      <c r="E24" s="4">
-        <f t="shared" si="6"/>
-        <v>0.11668287945748364</v>
-      </c>
-      <c r="F24" s="4">
-        <f t="shared" si="4"/>
-        <v>4.6220546518953458E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1">
-        <v>42329395872</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="5"/>
-        <v>423293958720</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" si="6"/>
-        <v>2.6809215616140407E-2</v>
-      </c>
-      <c r="F25" s="4">
-        <f t="shared" si="4"/>
-        <v>3.1859085153293169E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1">
-        <v>7090795112</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="5"/>
-        <v>141815902240</v>
-      </c>
-      <c r="E26" s="4">
-        <f t="shared" si="6"/>
-        <v>8.9818742333258161E-3</v>
-      </c>
-      <c r="F26" s="4">
-        <f t="shared" si="4"/>
-        <v>5.3368643852343557E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="1">
-        <v>856152000</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="5"/>
-        <v>85615200000</v>
-      </c>
-      <c r="E27" s="4">
-        <f t="shared" si="6"/>
-        <v>5.4224169977754415E-3</v>
-      </c>
-      <c r="F27" s="4">
-        <f t="shared" si="4"/>
-        <v>6.4438007938130996E-5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="1">
-        <f>SUM(C22:C27)</f>
-        <v>13286444249208</v>
-      </c>
-      <c r="D28" s="1">
-        <f>SUM(D22:D27)</f>
-        <v>15789121352180</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4">
-        <f>SUM(F22:F27)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="B36" s="5">
         <v>100</v>
       </c>
     </row>
